--- a/client/public/CLASS_INPUT.xlsx
+++ b/client/public/CLASS_INPUT.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT\FA24\PRN231\Project\VEMS\client\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Duong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F1F09-F079-42C1-84D1-D347FD3EDE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA78B60-0470-4B84-8B5F-D519E71BB3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="2160" windowWidth="21600" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lớp" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,51 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Khối 10</t>
-  </si>
-  <si>
-    <t>10A1</t>
-  </si>
-  <si>
-    <t>10A2</t>
-  </si>
-  <si>
-    <t>10A3</t>
-  </si>
-  <si>
-    <t>10A4</t>
-  </si>
-  <si>
-    <t>Khối 11</t>
-  </si>
-  <si>
-    <t>11A1</t>
-  </si>
-  <si>
-    <t>11A2</t>
-  </si>
-  <si>
-    <t>11A3</t>
-  </si>
-  <si>
-    <t>11A4</t>
-  </si>
-  <si>
-    <t>Khối 12</t>
-  </si>
-  <si>
-    <t>12A1</t>
-  </si>
-  <si>
-    <t>12A2</t>
-  </si>
-  <si>
-    <t>12A3</t>
-  </si>
-  <si>
-    <t>12A4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>10A6</t>
+  </si>
+  <si>
+    <t>10A7</t>
+  </si>
+  <si>
+    <t>10A8</t>
+  </si>
+  <si>
+    <t>10A9</t>
+  </si>
+  <si>
+    <t>10A10</t>
+  </si>
+  <si>
+    <t>11A6</t>
+  </si>
+  <si>
+    <t>11A7</t>
+  </si>
+  <si>
+    <t>11A8</t>
+  </si>
+  <si>
+    <t>11A9</t>
+  </si>
+  <si>
+    <t>11A11</t>
+  </si>
+  <si>
+    <t>12A6</t>
+  </si>
+  <si>
+    <t>12A7</t>
+  </si>
+  <si>
+    <t>12A8</t>
+  </si>
+  <si>
+    <t>12A9</t>
+  </si>
+  <si>
+    <t>12A12</t>
+  </si>
+  <si>
+    <t>Khối</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -86,15 +95,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,7 +117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,21 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,95 +433,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>